--- a/biology/Zoologie/Delias_nysa/Delias_nysa.xlsx
+++ b/biology/Zoologie/Delias_nysa/Delias_nysa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delias nysa  est un insecte lépidoptère  de la famille des Pieridae, de la sous-famille des Pierinae et du genre Delias.
 </t>
@@ -511,17 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Delias nysa a été nommé par Johan Christian Fabricius en 1775.
-Synonymes :Papilio nysa Fabricius, 1775; Papilio endora Donovan, 1805[1].
-Noms vernaculaires
-Delias nysa se nomme Yellow-spotted Jezebel en anglais.
-Sous-espèces
-Delias nysa nysa en Australie
-Delias nysa caledonica Nieuwenhuis et Howarth, 1969 présent en Nouvelle-Calédonie[2].
-Delias nysa nivira Waterhouse et Lyell, 1914 ; en Australie dans le nord du Queensland.
-Delias nysa santo Talbot 1937[3];</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delias nysa a été nommé par Johan Christian Fabricius en 1775.
+Synonymes :Papilio nysa Fabricius, 1775; Papilio endora Donovan, 1805.
+</t>
         </is>
       </c>
     </row>
@@ -546,83 +554,273 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delias nysa se nomme Yellow-spotted Jezebel en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Delias_nysa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_nysa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Delias nysa nysa en Australie
+Delias nysa caledonica Nieuwenhuis et Howarth, 1969 présent en Nouvelle-Calédonie.
+Delias nysa nivira Waterhouse et Lyell, 1914 ; en Australie dans le nord du Queensland.
+Delias nysa santo Talbot 1937;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Delias_nysa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_nysa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon de taille moyenne avec une envergure d'environ 50 mm présente un dimorphisme  suivant le sexe. Le dessus du mâle est blanc avec des veines noires et une bordure légèrement poudrée de noir surtout à l'apex alors que les femelles ont une partie basale blanche et une partie distale noire avec aux antérieure une ligne submarginale de petites taches blanches.
 Le revers est marron avec aux antérieures une partie basale blanche et une large tache costale ovale jaune vif.
 Les différences entre les sous-espèces sont minimes.
-Chenille
-Elle est de couleur vert olive[4].
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Delias_nysa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Delias_nysa</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Delias_nysa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_nysa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est de couleur vert olive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Delias_nysa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_nysa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont Amyema gaudichaudii et des Korthalsella dont Korthalsella japonica, Korthalsella breviarticulata et Korthalsella rubra [1],[5].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Amyema gaudichaudii et des Korthalsella dont Korthalsella japonica, Korthalsella breviarticulata et Korthalsella rubra ,.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Delias_nysa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Delias_nysa</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Delias_nysa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_nysa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delias nysa réside dans la partie est de l'Australie, en Nouvelle-Calédonie à Grande Terre, à Maré et à Lifou et au Vanuatu[1],[5],[6].
-Biotope
-Il réside sur la côte et près des bassins de drainage[5].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delias nysa réside dans la partie est de l'Australie, en Nouvelle-Calédonie à Grande Terre, à Maré et à Lifou et au Vanuatu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Delias_nysa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_nysa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur la côte et près des bassins de drainage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Delias_nysa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delias_nysa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
